--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H2">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I2">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J2">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N2">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O2">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P2">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q2">
-        <v>68.70232818474699</v>
+        <v>108.357824917914</v>
       </c>
       <c r="R2">
-        <v>618.320953662723</v>
+        <v>975.220424261226</v>
       </c>
       <c r="S2">
-        <v>0.0002862670823632327</v>
+        <v>0.0003673620936751426</v>
       </c>
       <c r="T2">
-        <v>0.0003096755332454355</v>
+        <v>0.0003912902785194617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H3">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I3">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J3">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N3">
         <v>22.018916</v>
       </c>
       <c r="O3">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P3">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q3">
-        <v>203.5862098565115</v>
+        <v>272.8384897392048</v>
       </c>
       <c r="R3">
-        <v>1832.275888708604</v>
+        <v>2455.546407652844</v>
       </c>
       <c r="S3">
-        <v>0.0008482977483425585</v>
+        <v>0.0009249956696868676</v>
       </c>
       <c r="T3">
-        <v>0.000917664215529882</v>
+        <v>0.0009852454007983052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H4">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I4">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J4">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N4">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O4">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P4">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q4">
-        <v>253.4538524231107</v>
+        <v>582.1728694059861</v>
       </c>
       <c r="R4">
-        <v>2281.084671807997</v>
+        <v>5239.555824653876</v>
       </c>
       <c r="S4">
-        <v>0.001056084950305858</v>
+        <v>0.00197372219632374</v>
       </c>
       <c r="T4">
-        <v>0.00114244246120996</v>
+        <v>0.002102280886395702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H5">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I5">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J5">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N5">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O5">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P5">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q5">
-        <v>286.9999006692374</v>
+        <v>264.387824601571</v>
       </c>
       <c r="R5">
-        <v>1721.999404015424</v>
+        <v>1586.326947609426</v>
       </c>
       <c r="S5">
-        <v>0.001195863755623943</v>
+        <v>0.0008963456479624516</v>
       </c>
       <c r="T5">
-        <v>0.0008624341137526416</v>
+        <v>0.0006364861704196149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H6">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I6">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J6">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N6">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O6">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P6">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q6">
-        <v>493.4175682663492</v>
+        <v>297.2196552151298</v>
       </c>
       <c r="R6">
-        <v>4440.758114397143</v>
+        <v>2674.976896936168</v>
       </c>
       <c r="S6">
-        <v>0.002055959548773029</v>
+        <v>0.001007654360946691</v>
       </c>
       <c r="T6">
-        <v>0.002224078173226619</v>
+        <v>0.001073288078260047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J7">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N7">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O7">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P7">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q7">
-        <v>111.851375079493</v>
+        <v>131.635452918606</v>
       </c>
       <c r="R7">
-        <v>1006.662375715437</v>
+        <v>1184.719076267454</v>
       </c>
       <c r="S7">
-        <v>0.0004660594138268355</v>
+        <v>0.0004462794968677902</v>
       </c>
       <c r="T7">
-        <v>0.0005041697295735506</v>
+        <v>0.0004753479785569363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J8">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N8">
         <v>22.018916</v>
       </c>
       <c r="O8">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P8">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q8">
         <v>331.4501578234529</v>
@@ -948,10 +948,10 @@
         <v>2983.051420411076</v>
       </c>
       <c r="S8">
-        <v>0.00138107793630811</v>
+        <v>0.001123704947189744</v>
       </c>
       <c r="T8">
-        <v>0.001494010568204437</v>
+        <v>0.001196897636772489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J9">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N9">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O9">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P9">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q9">
-        <v>412.6375722884714</v>
+        <v>707.2363200279782</v>
       </c>
       <c r="R9">
-        <v>3713.738150596243</v>
+        <v>6365.126880251805</v>
       </c>
       <c r="S9">
-        <v>0.001719367552942606</v>
+        <v>0.002397720842453239</v>
       </c>
       <c r="T9">
-        <v>0.001859962589505145</v>
+        <v>0.002553896747673423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J10">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N10">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O10">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P10">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q10">
-        <v>467.2524845331094</v>
+        <v>321.184105199209</v>
       </c>
       <c r="R10">
-        <v>2803.514907198657</v>
+        <v>1927.104631195254</v>
       </c>
       <c r="S10">
-        <v>0.001946935555292599</v>
+        <v>0.001088900274904393</v>
       </c>
       <c r="T10">
-        <v>0.001404092759117201</v>
+        <v>0.0007732173046393777</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J11">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N11">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O11">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P11">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q11">
-        <v>803.3124197852686</v>
+        <v>361.0689302797858</v>
       </c>
       <c r="R11">
-        <v>7229.811778067417</v>
+        <v>3249.620372518072</v>
       </c>
       <c r="S11">
-        <v>0.003347221392842586</v>
+        <v>0.001224120531111707</v>
       </c>
       <c r="T11">
-        <v>0.003620928264479314</v>
+        <v>0.001303853804752261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H12">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I12">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J12">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N12">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O12">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P12">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q12">
-        <v>6471.159027642636</v>
+        <v>6924.720474832679</v>
       </c>
       <c r="R12">
-        <v>58240.43124878372</v>
+        <v>62322.48427349411</v>
       </c>
       <c r="S12">
-        <v>0.02696385789678422</v>
+        <v>0.02347665997981009</v>
       </c>
       <c r="T12">
-        <v>0.02916872943828646</v>
+        <v>0.02500581573429815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H13">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I13">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J13">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N13">
         <v>22.018916</v>
       </c>
       <c r="O13">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P13">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q13">
-        <v>19176.04213169889</v>
+        <v>17436.02990970658</v>
       </c>
       <c r="R13">
-        <v>172584.3791852901</v>
+        <v>156924.2691873593</v>
       </c>
       <c r="S13">
-        <v>0.07990223588280983</v>
+        <v>0.05911281864382709</v>
       </c>
       <c r="T13">
-        <v>0.08643595100157321</v>
+        <v>0.06296314091586044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H14">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I14">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J14">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N14">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O14">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P14">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q14">
-        <v>23873.13834238815</v>
+        <v>37204.36795147634</v>
       </c>
       <c r="R14">
-        <v>214858.2450814933</v>
+        <v>334839.3115632871</v>
       </c>
       <c r="S14">
-        <v>0.09947397476475266</v>
+        <v>0.1261327875016729</v>
       </c>
       <c r="T14">
-        <v>0.1076080977422021</v>
+        <v>0.1343484654560189</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H15">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I15">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J15">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N15">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O15">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P15">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q15">
-        <v>27032.88297820172</v>
+        <v>16895.98128886302</v>
       </c>
       <c r="R15">
-        <v>162197.2978692103</v>
+        <v>101375.8877331781</v>
       </c>
       <c r="S15">
-        <v>0.1126399169068422</v>
+        <v>0.05728190895004396</v>
       </c>
       <c r="T15">
-        <v>0.08123375798778884</v>
+        <v>0.04067531643046014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H16">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I16">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J16">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N16">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O16">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P16">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q16">
-        <v>46475.6236891715</v>
+        <v>18994.13386665957</v>
       </c>
       <c r="R16">
-        <v>418280.6132025435</v>
+        <v>170947.2047999362</v>
       </c>
       <c r="S16">
-        <v>0.1936534255248785</v>
+        <v>0.06439520902240276</v>
       </c>
       <c r="T16">
-        <v>0.2094887310100462</v>
+        <v>0.06858960058077403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H17">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I17">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J17">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N17">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O17">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P17">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q17">
-        <v>95.92924261156801</v>
+        <v>224.31644492049</v>
       </c>
       <c r="R17">
-        <v>575.575455669408</v>
+        <v>1345.89866952294</v>
       </c>
       <c r="S17">
-        <v>0.0003997154844866689</v>
+        <v>0.0007604929216157839</v>
       </c>
       <c r="T17">
-        <v>0.0002882671775904822</v>
+        <v>0.0005400184944399168</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H18">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I18">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J18">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N18">
         <v>22.018916</v>
       </c>
       <c r="O18">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P18">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q18">
-        <v>284.2679634549974</v>
+        <v>564.8153246167266</v>
       </c>
       <c r="R18">
-        <v>1705.607780729984</v>
+        <v>3388.89194770036</v>
       </c>
       <c r="S18">
-        <v>0.001184480390370047</v>
+        <v>0.001914875463292018</v>
       </c>
       <c r="T18">
-        <v>0.0008542246480186924</v>
+        <v>0.001359734108412025</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H19">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I19">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J19">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N19">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O19">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P19">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q19">
-        <v>353.8982847066187</v>
+        <v>1205.182445229407</v>
       </c>
       <c r="R19">
-        <v>2123.389708239712</v>
+        <v>7231.094671376441</v>
       </c>
       <c r="S19">
-        <v>0.001474614210218406</v>
+        <v>0.004085891781930814</v>
       </c>
       <c r="T19">
-        <v>0.001063463620781133</v>
+        <v>0.002901351302303708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H20">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I20">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J20">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N20">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O20">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P20">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q20">
-        <v>400.7387206261761</v>
+        <v>547.321219670235</v>
       </c>
       <c r="R20">
-        <v>1602.954882504704</v>
+        <v>2189.28487868094</v>
       </c>
       <c r="S20">
-        <v>0.001669787725899795</v>
+        <v>0.001855565754694745</v>
       </c>
       <c r="T20">
-        <v>0.0008028126898620178</v>
+        <v>0.0008784125810187572</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H21">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I21">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J21">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N21">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O21">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P21">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q21">
-        <v>688.9602560156214</v>
+        <v>615.2878803986533</v>
       </c>
       <c r="R21">
-        <v>4133.761536093728</v>
+        <v>3691.72728239192</v>
       </c>
       <c r="S21">
-        <v>0.002870741757447534</v>
+        <v>0.00208599096675686</v>
       </c>
       <c r="T21">
-        <v>0.002070324158378059</v>
+        <v>0.001481241533307029</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H22">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I22">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J22">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N22">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O22">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P22">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q22">
-        <v>5875.723747653296</v>
+        <v>13569.60595042392</v>
       </c>
       <c r="R22">
-        <v>52881.51372887967</v>
+        <v>122126.4535538153</v>
       </c>
       <c r="S22">
-        <v>0.02448281358806273</v>
+        <v>0.04600460424589308</v>
       </c>
       <c r="T22">
-        <v>0.0264848067428576</v>
+        <v>0.04900112101514615</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H23">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I23">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J23">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N23">
         <v>22.018916</v>
       </c>
       <c r="O23">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P23">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q23">
-        <v>17411.58355990345</v>
+        <v>34167.45211224441</v>
       </c>
       <c r="R23">
-        <v>156704.2520391311</v>
+        <v>307507.0690101997</v>
       </c>
       <c r="S23">
-        <v>0.07255013558803672</v>
+        <v>0.1158368281479244</v>
       </c>
       <c r="T23">
-        <v>0.07848265940946172</v>
+        <v>0.1233818772518589</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H24">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I24">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J24">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N24">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O24">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P24">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q24">
-        <v>21676.48257293436</v>
+        <v>72905.2695442285</v>
       </c>
       <c r="R24">
-        <v>195088.3431564093</v>
+        <v>656147.4258980567</v>
       </c>
       <c r="S24">
-        <v>0.09032100637644837</v>
+        <v>0.247168420739411</v>
       </c>
       <c r="T24">
-        <v>0.09770667860931619</v>
+        <v>0.2632677727437608</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H25">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I25">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J25">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N25">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O25">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P25">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q25">
-        <v>24545.48741640414</v>
+        <v>33109.17878474318</v>
       </c>
       <c r="R25">
-        <v>147272.9244984249</v>
+        <v>198655.0727084591</v>
       </c>
       <c r="S25">
-        <v>0.102275501479111</v>
+        <v>0.112248997683757</v>
       </c>
       <c r="T25">
-        <v>0.07375913941862262</v>
+        <v>0.07970690194299639</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H26">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I26">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J26">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N26">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O26">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P26">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q26">
-        <v>42199.22963273891</v>
+        <v>37220.69546011532</v>
       </c>
       <c r="R26">
-        <v>379793.0666946502</v>
+        <v>334986.2591410379</v>
       </c>
       <c r="S26">
-        <v>0.1758346574872298</v>
+        <v>0.1261881421358459</v>
       </c>
       <c r="T26">
-        <v>0.1902128979373704</v>
+        <v>0.1344074256225571</v>
       </c>
     </row>
   </sheetData>
